--- a/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_+20%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_+20%.xlsx
@@ -70936,6 +70936,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.71533333333334</v>
+      </c>
       <c r="C2" t="n">
         <v>454.4794444444444</v>
       </c>
@@ -70991,6 +70994,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>12.45083333333333</v>
+      </c>
       <c r="C3" t="n">
         <v>414.2411111111111</v>
       </c>
@@ -71046,6 +71052,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.93516666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>437.1011111111111</v>
       </c>
@@ -71101,6 +71110,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>14.13233333333333</v>
+      </c>
       <c r="C5" t="n">
         <v>455.665</v>
       </c>
@@ -71156,6 +71168,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>12.761</v>
+      </c>
       <c r="C6" t="n">
         <v>428.4255555555557</v>
       </c>
@@ -71211,6 +71226,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.24733333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>415.5483333333333</v>
       </c>
@@ -71266,6 +71284,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>13.2725</v>
+      </c>
       <c r="C8" t="n">
         <v>446.7288888888888</v>
       </c>
@@ -71321,6 +71342,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.45933333333334</v>
+      </c>
       <c r="C9" t="n">
         <v>441.2477777777777</v>
       </c>
@@ -71376,6 +71400,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>14.36433333333333</v>
+      </c>
       <c r="C10" t="n">
         <v>459.4466666666667</v>
       </c>
@@ -71431,6 +71458,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>12.6605</v>
+      </c>
       <c r="C11" t="n">
         <v>417.2983333333334</v>
       </c>
@@ -71486,6 +71516,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.26416666666667</v>
+      </c>
       <c r="C12" t="n">
         <v>454.6650000000001</v>
       </c>
@@ -71541,6 +71574,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.46316666666667</v>
+      </c>
       <c r="C13" t="n">
         <v>441.8155555555556</v>
       </c>
@@ -71596,6 +71632,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.2565</v>
+      </c>
       <c r="C14" t="n">
         <v>439.3899999999999</v>
       </c>
@@ -71651,6 +71690,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>12.7875</v>
+      </c>
       <c r="C15" t="n">
         <v>423.0194444444445</v>
       </c>
@@ -71706,6 +71748,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>12.81816666666667</v>
+      </c>
       <c r="C16" t="n">
         <v>424.9316666666667</v>
       </c>
@@ -71761,6 +71806,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>13.1535</v>
+      </c>
       <c r="C17" t="n">
         <v>447.3800000000001</v>
       </c>
@@ -71816,6 +71864,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>14.101</v>
+      </c>
       <c r="C18" t="n">
         <v>459.6444444444444</v>
       </c>
@@ -71871,6 +71922,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.2775</v>
+      </c>
       <c r="C19" t="n">
         <v>417.7672222222222</v>
       </c>
@@ -71926,6 +71980,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.87983333333333</v>
+      </c>
       <c r="C20" t="n">
         <v>423.1338888888889</v>
       </c>
@@ -71981,6 +72038,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>12.72516666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>424.8116666666667</v>
       </c>
@@ -72036,6 +72096,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>12.74916666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>425.2088888888889</v>
       </c>
@@ -72091,6 +72154,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.053</v>
+      </c>
       <c r="C23" t="n">
         <v>434.1488888888888</v>
       </c>
@@ -72146,6 +72212,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>12.82633333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>438.16</v>
       </c>
@@ -72201,6 +72270,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.96483333333333</v>
+      </c>
       <c r="C25" t="n">
         <v>436.7833333333333</v>
       </c>
@@ -72256,6 +72328,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>12.18433333333333</v>
+      </c>
       <c r="C26" t="n">
         <v>424.0222222222222</v>
       </c>
@@ -72311,6 +72386,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>14.49633333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>456.9416666666667</v>
       </c>
@@ -72366,6 +72444,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>14.61766666666667</v>
+      </c>
       <c r="C28" t="n">
         <v>455.6338888888889</v>
       </c>
@@ -72421,6 +72502,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>14.62766666666667</v>
+      </c>
       <c r="C29" t="n">
         <v>443.6316666666667</v>
       </c>
@@ -72476,6 +72560,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.33383333333333</v>
+      </c>
       <c r="C30" t="n">
         <v>431.0377777777778</v>
       </c>
@@ -72530,6 +72617,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.109</v>
       </c>
       <c r="C31" t="n">
         <v>425.4400000000001</v>
